--- a/spreadsheet/macrofree/azure_storage_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.pt.xlsx
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Aproveite o Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para localizar contas de armazenamento que permitem acesso anônimo a blobs.</t>
+          <t>O acesso anônimo pode representar um risco de segurança. Recomendamos que você desabilite o acesso anônimo para obter a segurança ideal. Não permitir o acesso anônimo ajuda a evitar violações de dados causadas por acesso anônimo indesejado.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
